--- a/antennas_placement/buildingsPointsPart1.xlsx
+++ b/antennas_placement/buildingsPointsPart1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkiria01\Dropbox\GIS-Micropolis_v1\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkiria01\Documents\GitHub\micropolis-testbed\antennas_placement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="167">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="164">
   <si>
     <t>806.0</t>
   </si>
@@ -1345,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,18 +1646,18 @@
         <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>85</v>
@@ -1677,18 +1668,18 @@
         <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>90</v>
@@ -1732,18 +1723,18 @@
         <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>104</v>
@@ -1754,32 +1745,32 @@
         <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,18 +1833,18 @@
         <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>131</v>
@@ -1878,183 +1869,172 @@
         <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
